--- a/OtherFiles/ControlScheme.xlsx
+++ b/OtherFiles/ControlScheme.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolo4\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\[1]_Work\Macromedia\Sonstiges\Initiativprojekt\catchAndChaosGitHub\OtherFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09ADCA5-478B-486D-A1A9-38DA0DB8D523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6EA22F-47B5-46A2-9DFC-B0A83A5B5519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="25720" windowHeight="20970" xr2:uid="{5BBD0571-C6C3-4597-A857-3568ED1290BB}"/>
+    <workbookView xWindow="6740" yWindow="2090" windowWidth="28800" windowHeight="15370" xr2:uid="{5BBD0571-C6C3-4597-A857-3568ED1290BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>Controls</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>Take / Throw Plushie</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Parent</t>
   </si>
 </sst>
 </file>
@@ -474,15 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B6BDD7-FA52-4CF7-94C9-4ABB4E502982}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31" x14ac:dyDescent="0.7">
@@ -560,74 +572,96 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
+      <c r="A10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/OtherFiles/ControlScheme.xlsx
+++ b/OtherFiles/ControlScheme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\[1]_Work\Macromedia\Sonstiges\Initiativprojekt\catchAndChaosGitHub\OtherFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6EA22F-47B5-46A2-9DFC-B0A83A5B5519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDF9926-82BA-4C9B-8F0F-2A21D3E198BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6740" yWindow="2090" windowWidth="28800" windowHeight="15370" xr2:uid="{5BBD0571-C6C3-4597-A857-3568ED1290BB}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15370" xr2:uid="{5BBD0571-C6C3-4597-A857-3568ED1290BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>Controls</t>
   </si>
@@ -117,13 +117,37 @@
   </si>
   <si>
     <t>Parent</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Ready to start Game</t>
+  </si>
+  <si>
+    <t>Esc</t>
+  </si>
+  <si>
+    <t>CharacterSelect</t>
+  </si>
+  <si>
+    <t>[Click on Ready Button]</t>
+  </si>
+  <si>
+    <t>Play as Child</t>
+  </si>
+  <si>
+    <t>Play as Parent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +166,14 @@
     <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -168,10 +200,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -486,181 +522,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B6BDD7-FA52-4CF7-94C9-4ABB4E502982}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="6" max="6" width="28.26953125" customWidth="1"/>
+    <col min="8" max="8" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="31" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>25</v>
       </c>
     </row>

--- a/OtherFiles/ControlScheme.xlsx
+++ b/OtherFiles/ControlScheme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\[1]_Work\Macromedia\Sonstiges\Initiativprojekt\catchAndChaosGitHub\OtherFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDF9926-82BA-4C9B-8F0F-2A21D3E198BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66C7D98-11D4-4F7C-A681-C5695A1B5423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15370" xr2:uid="{5BBD0571-C6C3-4597-A857-3568ED1290BB}"/>
+    <workbookView xWindow="2760" yWindow="2790" windowWidth="35740" windowHeight="15380" xr2:uid="{5BBD0571-C6C3-4597-A857-3568ED1290BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Controls</t>
   </si>
@@ -80,24 +80,12 @@
     <t>Arrowkeys</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>Space</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>Open/ Close Doors</t>
   </si>
   <si>
@@ -110,12 +98,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>Parent</t>
   </si>
   <si>
@@ -141,6 +123,15 @@
   </si>
   <si>
     <t>Play as Parent</t>
+  </si>
+  <si>
+    <t>J (M)</t>
+  </si>
+  <si>
+    <t>K (N)</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -522,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B6BDD7-FA52-4CF7-94C9-4ABB4E502982}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -542,10 +533,10 @@
     </row>
     <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.65">
@@ -558,15 +549,12 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -579,17 +567,14 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -597,22 +582,19 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -623,13 +605,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -643,19 +622,16 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
         <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -663,26 +639,20 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -694,63 +664,40 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
